--- a/pbr_shader/【说明】debug.xlsx
+++ b/pbr_shader/【说明】debug.xlsx
@@ -24,9 +24,966 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>正式研究</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+  <si>
+    <t>正式研究：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首先来说这里4个是必须要研究明白的，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">开始是 unityCG.cginc </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unity 的saturate 是自己实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这写都是引擎定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float4 具体是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相机世界位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景中第一个平行光的位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯光类型，衰减</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unity_4LightPosX0, unity_4LightPosY0, unity_4LightPosZ0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">只能在前向渲染中使用，前4个灯光，世界空间位置 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://docs.unity3d.com/Manual/SL-UnityShaderVariables.html</t>
+  </si>
+  <si>
+    <t>unity_4LightAtten0</t>
+  </si>
+  <si>
+    <t>前4个灯光的衰减系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unity_LightColor</t>
+  </si>
+  <si>
+    <t>hald4[4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前4个灯光的颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unity_WorldToShadow</t>
+  </si>
+  <si>
+    <t>float4x4[4]</t>
+  </si>
+  <si>
+    <t>世界投影矩阵， 是用到聚光灯上，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果定义了灯光coolkie 可以定义平行光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果使用了 上面一些灯光类型， 定义多灯光编译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里定义 灯光到世界顶点的距离， 针对 比如点光源，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传入模型空间点计算 世界空间，灯光到顶点的方向和长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个是在 物体空间，求出灯光的向量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传入的是  自身空间点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传入自身空间顶点，得到顶点到相机的方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同样道理在模型空间进行计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验的亮度计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算视差uv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">传入高度图 高度参数， 返回当作uv </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://answers.unity.com/questions/1299881/parallax-offset-in-custom-shader.html</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. float2 offsetBumpMap </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF660066"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ParallaxOffset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>tex2D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF660066"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_ParallaxMap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> IN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>uv_MainTex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF660066"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_Parallax</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> IN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>viewDir</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. fixed4 c </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> tex2D </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF660066"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_MainTex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> IN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">uv_MainTex </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> offsetMainTex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF660066"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_Color</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4. o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF660066"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Albedo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>rgb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5. o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF660066"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Normal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF660066"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>UnpackNormal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>tex2D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF660066"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_BumpMap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> IN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">uv_BumpMap </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> offsetBumpMap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>));</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. float2 offsetMainTex </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF660066"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ParallaxOffset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>tex2D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF660066"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_ParallaxMap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> IN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>uv_MainTex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF660066"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_Parallax</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> IN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>viewDir</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这里是才</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">uv </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>采样</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://popperelay.cn/2018/08/14/OpenGL32-%E8%A7%86%E5%B7%AE%E8%B4%B4%E5%9B%BE/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 这里注解的会好些</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -34,7 +991,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,6 +1007,43 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF455463"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF455463"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF666600"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF660066"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -59,12 +1053,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE6E6E6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE6E6E6"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE6E6E6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE6E6E6"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -73,9 +1082,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -92,6 +1110,539 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>113861</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>37979</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EAE85F3-FA05-4088-A4E5-8C3A3EB7EA1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="152400"/>
+          <a:ext cx="3514286" cy="971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304424</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9355</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{529D5AEE-2FBB-48DA-8D02-C8CE25989874}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="2447925"/>
+          <a:ext cx="3009524" cy="1361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371000</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>123312</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0E31B0D-B244-4B19-BE89-0D917D87AA4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="4162425"/>
+          <a:ext cx="3800000" cy="4104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>351439</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142661</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F752DE3-1C3F-4AB6-8824-8E8A57CC8E7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6181725" y="2590800"/>
+          <a:ext cx="7885714" cy="1714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>513765</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152319</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11DBA761-D6FD-4FEC-8B72-E9D8D1F33D03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638175" y="10201275"/>
+          <a:ext cx="4676190" cy="647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>560705</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>18912</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60A464B3-A720-4783-ADFE-D714DFCC2AFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="11420475"/>
+          <a:ext cx="10161905" cy="1104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>665981</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>171134</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CD18E71-015D-4E29-A47B-AD2C8868AC84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="13230225"/>
+          <a:ext cx="6152381" cy="2523809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>608752</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>161611</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4255D2D-E310-4A82-971E-C7279027C145}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="16125825"/>
+          <a:ext cx="6780952" cy="2514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>275505</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>85601</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E0A131D-8FB7-4E68-B2A8-A5A0DD0A56D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="19202400"/>
+          <a:ext cx="5761905" cy="990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>398971</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>171293</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E53C230-0FAE-4619-B3F9-0E0BC37A6359}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="20469225"/>
+          <a:ext cx="8628571" cy="1257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>56629</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>171315</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A96EBA95-FF7D-44B4-9D64-B457E522FFD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="22278975"/>
+          <a:ext cx="4171429" cy="1076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285114</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>85533</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF6EBDD0-99BB-4382-AA09-844BD0D2D623}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="23907750"/>
+          <a:ext cx="5085714" cy="1533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -391,21 +1942,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2"/>
+  <dimension ref="A2:O153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="N134" sqref="N134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" t="s">
+        <v>10</v>
+      </c>
+      <c r="N48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L79" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L93" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L96" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L108" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="117" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="O117" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="126" spans="10:15" x14ac:dyDescent="0.2">
+      <c r="J126" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J135" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J137" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B142" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B144" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="145" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B145" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="146" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B146" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="147" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B147" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="148" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B148" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="150" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B150" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="152" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B152" t="s">
+        <v>38</v>
+      </c>
+      <c r="K152" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="153" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B153" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>